--- a/data/trans_orig/AIRE_1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_1-Habitat-trans_orig.xlsx
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5348</v>
+        <v>4569</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.002343605834170915</v>
+        <v>0.002343605834170916</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01417158511681715</v>
+        <v>0.0121064609194123</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -762,19 +762,19 @@
         <v>2702</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7163</v>
+        <v>7209</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007084994084119551</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001853616197181303</v>
+        <v>0.001812610856438346</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01878012222787777</v>
+        <v>0.0189006918083833</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -783,19 +783,19 @@
         <v>3587</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1318</v>
+        <v>1187</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8471</v>
+        <v>7914</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004726741646913304</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001736863982598871</v>
+        <v>0.001564152545906294</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0111641035575414</v>
+        <v>0.01042961868225552</v>
       </c>
     </row>
     <row r="5">
@@ -815,16 +815,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8488</v>
+        <v>8923</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.006471895426621915</v>
+        <v>0.006471895426621916</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02249054805232152</v>
+        <v>0.0236433021159803</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -833,19 +833,19 @@
         <v>1512</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4458</v>
+        <v>3993</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.003964615028656896</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.00100631234932697</v>
+        <v>0.001012733722609175</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01168854192801191</v>
+        <v>0.01047026008532688</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -854,19 +854,19 @@
         <v>3955</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1298</v>
+        <v>1178</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9445</v>
+        <v>10345</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.005211675973164976</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001710192985492697</v>
+        <v>0.001552553973261032</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01244662829153168</v>
+        <v>0.01363294145783293</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4053</v>
+        <v>4091</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.002121775335351466</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01062711610919471</v>
+        <v>0.01072611899646525</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4065</v>
+        <v>3819</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.001066455333693533</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.005356809704115311</v>
+        <v>0.005033219226157071</v>
       </c>
     </row>
     <row r="9">
@@ -1040,19 +1040,19 @@
         <v>4117</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1026</v>
+        <v>981</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10730</v>
+        <v>10241</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01090743634959573</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002717552689636434</v>
+        <v>0.002598727277134233</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02843154433723301</v>
+        <v>0.02713482632166687</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>15</v>
@@ -1061,19 +1061,19 @@
         <v>8656</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5027</v>
+        <v>4870</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13998</v>
+        <v>14686</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02269506842834162</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01318042579916989</v>
+        <v>0.01276796188797979</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03670213961195738</v>
+        <v>0.03850559351727846</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>19</v>
@@ -1082,19 +1082,19 @@
         <v>12772</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>7921</v>
+        <v>7810</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>20517</v>
+        <v>19876</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01683218384408633</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01043820539313693</v>
+        <v>0.01029228910110406</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02703851058544613</v>
+        <v>0.02619342382749087</v>
       </c>
     </row>
     <row r="10">
@@ -1124,19 +1124,19 @@
         <v>1470</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4528</v>
+        <v>4797</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003853213339403196</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0009134917652862897</v>
+        <v>0.0009366130835850196</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01187285777995436</v>
+        <v>0.0125767760373466</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1145,19 +1145,19 @@
         <v>1470</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4255</v>
+        <v>4392</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001936717733117073</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0004749735292413419</v>
+        <v>0.0004717300799992512</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.005607315803580418</v>
+        <v>0.005788331545958782</v>
       </c>
     </row>
     <row r="11">
@@ -1174,19 +1174,19 @@
         <v>12683</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6153</v>
+        <v>6119</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>32520</v>
+        <v>30611</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03360557298091656</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01630222630845424</v>
+        <v>0.01621370856286187</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08616621412203523</v>
+        <v>0.08110872405044732</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -1195,19 +1195,19 @@
         <v>7591</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4005</v>
+        <v>4086</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12272</v>
+        <v>13207</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.0199046814533983</v>
+        <v>0.01990468145339831</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01050135480903369</v>
+        <v>0.010713291462121</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03217770837576978</v>
+        <v>0.03462823840858767</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>24</v>
@@ -1216,19 +1216,19 @@
         <v>20275</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>12753</v>
+        <v>12485</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>37787</v>
+        <v>36110</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02671917525424205</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01680722500206857</v>
+        <v>0.01645315755921569</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04979787123329914</v>
+        <v>0.04758816771303398</v>
       </c>
     </row>
     <row r="12">
@@ -1245,19 +1245,19 @@
         <v>4996</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1643</v>
+        <v>1974</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10946</v>
+        <v>12425</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01323842392293629</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.004353917393876591</v>
+        <v>0.005230543279559404</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02900334122389468</v>
+        <v>0.03292172150602533</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -1266,19 +1266,19 @@
         <v>4896</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2419</v>
+        <v>2310</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8873</v>
+        <v>9117</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01283820253514122</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.006341316658587243</v>
+        <v>0.006056825337350421</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02326434935920119</v>
+        <v>0.02390541919200543</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -1287,19 +1287,19 @@
         <v>9893</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5463</v>
+        <v>5546</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17044</v>
+        <v>17119</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01303726302406026</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.007199933845492606</v>
+        <v>0.007308605247837824</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0224614926609622</v>
+        <v>0.02256099812660488</v>
       </c>
     </row>
     <row r="13">
@@ -1316,19 +1316,19 @@
         <v>21077</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12679</v>
+        <v>11984</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33692</v>
+        <v>33566</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05584615551687734</v>
+        <v>0.05584615551687733</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03359552669332765</v>
+        <v>0.03175330728080217</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08927048537187751</v>
+        <v>0.08893893720959077</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -1337,19 +1337,19 @@
         <v>25584</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18875</v>
+        <v>19019</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>34126</v>
+        <v>34365</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06708061028765736</v>
+        <v>0.06708061028765734</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0494887286853457</v>
+        <v>0.0498675315962908</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08947793500506579</v>
+        <v>0.09010305457376679</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>63</v>
@@ -1358,19 +1358,19 @@
         <v>46661</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>36371</v>
+        <v>34672</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>62783</v>
+        <v>62054</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06149286278687795</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04793254081416574</v>
+        <v>0.04569252592439441</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08273901350017418</v>
+        <v>0.0817792291052203</v>
       </c>
     </row>
     <row r="14">
@@ -1387,19 +1387,19 @@
         <v>54031</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>42171</v>
+        <v>42509</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>67881</v>
+        <v>67786</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1431634931537396</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.11173818199151</v>
+        <v>0.112634445050538</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1798608411061089</v>
+        <v>0.1796083416879054</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>82</v>
@@ -1408,19 +1408,19 @@
         <v>40454</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>32129</v>
+        <v>31555</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>51709</v>
+        <v>50737</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1060704552961397</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08424098688470198</v>
+        <v>0.08273671537581979</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1355808432403746</v>
+        <v>0.1330318185210578</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>148</v>
@@ -1429,19 +1429,19 @@
         <v>94486</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>81090</v>
+        <v>79908</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>110041</v>
+        <v>111287</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1245196398639751</v>
+        <v>0.1245196398639752</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1068656855097189</v>
+        <v>0.1053080469323368</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1450187931617976</v>
+        <v>0.1466612428167396</v>
       </c>
     </row>
     <row r="15">
@@ -1458,19 +1458,19 @@
         <v>277179</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>257890</v>
+        <v>258864</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>295007</v>
+        <v>294523</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7344234168151419</v>
+        <v>0.7344234168151418</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6833141485034366</v>
+        <v>0.6858972936622223</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7816622532468506</v>
+        <v>0.7803781638544508</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>503</v>
@@ -1479,19 +1479,19 @@
         <v>287717</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>272512</v>
+        <v>275125</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>300150</v>
+        <v>299929</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.7543863842117905</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.714520291267812</v>
+        <v>0.7213695760098278</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.7869848675015995</v>
+        <v>0.7864064545374799</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>806</v>
@@ -1500,19 +1500,19 @@
         <v>564896</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>543231</v>
+        <v>539879</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>587463</v>
+        <v>585979</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.7444572845398695</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.715906746059023</v>
+        <v>0.7114888203339713</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.7741981929385358</v>
+        <v>0.7722426024766293</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10872</v>
+        <v>11651</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.005384057099728696</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02024686292660152</v>
+        <v>0.02169744057586652</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1625,19 +1625,19 @@
         <v>4828</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15370</v>
+        <v>14920</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.009104105458208453</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001662490867661004</v>
+        <v>0.001653842812460315</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02898336823105387</v>
+        <v>0.02813552884664763</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -1646,19 +1646,19 @@
         <v>7719</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2601</v>
+        <v>2844</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>18450</v>
+        <v>18424</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.007232430173304947</v>
+        <v>0.007232430173304948</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.002437442738983228</v>
+        <v>0.002664942478607907</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01728668744642768</v>
+        <v>0.01726301583968563</v>
       </c>
     </row>
     <row r="18">
@@ -1675,19 +1675,19 @@
         <v>5276</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1759</v>
+        <v>1980</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12141</v>
+        <v>12440</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.009825228086815076</v>
+        <v>0.009825228086815074</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.003275014942736521</v>
+        <v>0.003687759820277191</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02261019649952141</v>
+        <v>0.02316614071516527</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3661</v>
+        <v>4489</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.001407277574818632</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.006904124158917359</v>
+        <v>0.008465568808106588</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>6</v>
@@ -1717,19 +1717,19 @@
         <v>6022</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2455</v>
+        <v>2417</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>12952</v>
+        <v>13102</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.005642617657678013</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.002300069494314863</v>
+        <v>0.002264392823464027</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01213538993585353</v>
+        <v>0.01227652839361764</v>
       </c>
     </row>
     <row r="19">
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6923</v>
+        <v>5915</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.002213357520302604</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01289335302660758</v>
+        <v>0.01101575877003152</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5935</v>
+        <v>5222</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003052771574151081</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01119266538666152</v>
+        <v>0.009846946722530756</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -1835,19 +1835,19 @@
         <v>2807</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7934</v>
+        <v>7916</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002630435521769518</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0006509513095375366</v>
+        <v>0.0006501045898785728</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.007433888259276697</v>
+        <v>0.007417434379162783</v>
       </c>
     </row>
     <row r="21">
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7154</v>
+        <v>6555</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.002047319421499615</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01349072418754811</v>
+        <v>0.0123614326325218</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>6300</v>
+        <v>5758</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.001017247553538809</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.005902798019684542</v>
+        <v>0.005395248953631308</v>
       </c>
     </row>
     <row r="22">
@@ -1927,19 +1927,19 @@
         <v>6022</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1586</v>
+        <v>1538</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14562</v>
+        <v>15862</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.0112153135763765</v>
+        <v>0.01121531357637651</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002953250987913046</v>
+        <v>0.002864607390401732</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02711838532599051</v>
+        <v>0.02953888651073346</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -1951,16 +1951,16 @@
         <v>507</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5761</v>
+        <v>6700</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.003992662246381603</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0009560726683822793</v>
+        <v>0.0009555639963190597</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01086353308181706</v>
+        <v>0.01263448683456145</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -1969,19 +1969,19 @@
         <v>8140</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3462</v>
+        <v>3012</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>18258</v>
+        <v>17380</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.007626609088769258</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003243616046394719</v>
+        <v>0.002822474189845191</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01710731484634329</v>
+        <v>0.01628469158068479</v>
       </c>
     </row>
     <row r="23">
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4479</v>
+        <v>4387</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.001605712272473812</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.008340673639963433</v>
+        <v>0.008170585350969263</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -2019,19 +2019,19 @@
         <v>2118</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6583</v>
+        <v>6295</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.003993911584980196</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0009415623791272246</v>
+        <v>0.0009853044306567334</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01241387990510602</v>
+        <v>0.01187076732994941</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4</v>
@@ -2040,19 +2040,19 @@
         <v>2980</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>860</v>
+        <v>765</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7026</v>
+        <v>7440</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.002792332143559053</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0008060458953207281</v>
+        <v>0.0007165945251292959</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.006582780265526733</v>
+        <v>0.006971386799212488</v>
       </c>
     </row>
     <row r="24">
@@ -2069,19 +2069,19 @@
         <v>18309</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8930</v>
+        <v>8590</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>35890</v>
+        <v>36640</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03409652136469144</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01662981052320072</v>
+        <v>0.01599724324126562</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.066835848720256</v>
+        <v>0.0682329950410252</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>18</v>
@@ -2090,19 +2090,19 @@
         <v>17395</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>9953</v>
+        <v>10059</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>30930</v>
+        <v>30404</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03280163442894735</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01876848040283485</v>
+        <v>0.01896895928788273</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05832571589327406</v>
+        <v>0.05733337249585416</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>28</v>
@@ -2111,19 +2111,19 @@
         <v>35704</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>22474</v>
+        <v>22314</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>56002</v>
+        <v>55748</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03345313345283829</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02105750623850282</v>
+        <v>0.0209069530547496</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05247225936109145</v>
+        <v>0.05223357007045983</v>
       </c>
     </row>
     <row r="25">
@@ -2140,19 +2140,19 @@
         <v>11557</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5957</v>
+        <v>5608</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26305</v>
+        <v>24474</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02152222963000645</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0110939279456352</v>
+        <v>0.01044280276106367</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04898744253320437</v>
+        <v>0.04557632000712201</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2161,19 +2161,19 @@
         <v>3032</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9435</v>
+        <v>9166</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.005717286602163131</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001164775883370543</v>
+        <v>0.001148506821600002</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01779128391597508</v>
+        <v>0.01728415668747412</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -2182,19 +2182,19 @@
         <v>14589</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7471</v>
+        <v>6974</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>26081</v>
+        <v>27984</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01366925883314005</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007000069477693664</v>
+        <v>0.006534215673200424</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02443654108273198</v>
+        <v>0.0262202150118469</v>
       </c>
     </row>
     <row r="26">
@@ -2211,19 +2211,19 @@
         <v>37802</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>24734</v>
+        <v>25418</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>54893</v>
+        <v>56758</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.07039633915661879</v>
+        <v>0.0703963391566188</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04606182856484023</v>
+        <v>0.0473351916702231</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1022245234791265</v>
+        <v>0.105697767810344</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>47</v>
@@ -2232,19 +2232,19 @@
         <v>30346</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>22382</v>
+        <v>22760</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>40502</v>
+        <v>40208</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05722458660913939</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04220656368240633</v>
+        <v>0.04291871036023572</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07637583160466759</v>
+        <v>0.07582207326849821</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>75</v>
@@ -2253,19 +2253,19 @@
         <v>68148</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>52160</v>
+        <v>53212</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>88057</v>
+        <v>88672</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06385171650807889</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04887160403879986</v>
+        <v>0.04985766958731552</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0825064953080604</v>
+        <v>0.08308247110511734</v>
       </c>
     </row>
     <row r="27">
@@ -2282,19 +2282,19 @@
         <v>62949</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>48909</v>
+        <v>49365</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>79798</v>
+        <v>79163</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.117226582965027</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.09108173199717919</v>
+        <v>0.0919302077245055</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1486050229296196</v>
+        <v>0.1474212621760115</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>93</v>
@@ -2303,19 +2303,19 @@
         <v>58328</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>47326</v>
+        <v>46082</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>73719</v>
+        <v>69617</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1099921341542975</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.08924499175067999</v>
+        <v>0.08689957731037024</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1390141822294753</v>
+        <v>0.1312796317840511</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>163</v>
@@ -2324,19 +2324,19 @@
         <v>121277</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>102992</v>
+        <v>102836</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>142305</v>
+        <v>140792</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.11363201668649</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.09650015827882763</v>
+        <v>0.09635335948807112</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.133334922219101</v>
+        <v>0.1319166851160087</v>
       </c>
     </row>
     <row r="28">
@@ -2353,19 +2353,19 @@
         <v>390125</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>362754</v>
+        <v>366817</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>411461</v>
+        <v>414410</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7265146583279596</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6755421642505923</v>
+        <v>0.683109432338631</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7662466348210402</v>
+        <v>0.7717398891594545</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>580</v>
@@ -2374,19 +2374,19 @@
         <v>408681</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>388664</v>
+        <v>388331</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>425771</v>
+        <v>424140</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.770666310345413</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7329189947958641</v>
+        <v>0.732291765017867</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8028924401259896</v>
+        <v>0.7998171680059005</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>950</v>
@@ -2395,19 +2395,19 @@
         <v>798807</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>769095</v>
+        <v>768154</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>829871</v>
+        <v>826705</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7484522023808331</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7206133369053118</v>
+        <v>0.7197319929043623</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.777558863037113</v>
+        <v>0.7745922428985339</v>
       </c>
     </row>
     <row r="29">
@@ -2499,19 +2499,19 @@
         <v>7953</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3582</v>
+        <v>3176</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>15796</v>
+        <v>15360</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.02124947364301137</v>
+        <v>0.02124947364301138</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.009570497414926727</v>
+        <v>0.00848640017212335</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04220710559364953</v>
+        <v>0.04104092835656991</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4</v>
@@ -2520,19 +2520,19 @@
         <v>2700</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>688</v>
+        <v>670</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6958</v>
+        <v>6278</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.007400303294530866</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.001885646461389333</v>
+        <v>0.001836475316993211</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01907058682625118</v>
+        <v>0.01720557843637001</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>11</v>
@@ -2541,19 +2541,19 @@
         <v>10653</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>5363</v>
+        <v>5012</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>19710</v>
+        <v>18834</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.01441274064777114</v>
+        <v>0.01441274064777113</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.007256221909852478</v>
+        <v>0.006780850822353598</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0266669296889053</v>
+        <v>0.02548166399143214</v>
       </c>
     </row>
     <row r="31">
@@ -2570,19 +2570,19 @@
         <v>8730</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3048</v>
+        <v>2395</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>25773</v>
+        <v>24834</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02332747663183058</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.008145405261748189</v>
+        <v>0.006398244781947456</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06886522638474907</v>
+        <v>0.06635705681553897</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>8</v>
@@ -2591,19 +2591,19 @@
         <v>7076</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3280</v>
+        <v>2981</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>14043</v>
+        <v>13686</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.01939233660519773</v>
+        <v>0.01939233660519772</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.008988816484375847</v>
+        <v>0.008170725930470352</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03848849733769312</v>
+        <v>0.037508317106735</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>13</v>
@@ -2612,19 +2612,19 @@
         <v>15806</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>8434</v>
+        <v>7895</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>30567</v>
+        <v>29423</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0213848691698664</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01141088255541317</v>
+        <v>0.01068133872219037</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04135563869146266</v>
+        <v>0.03980803299336114</v>
       </c>
     </row>
     <row r="32">
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>5187</v>
+        <v>5127</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.00268070367973721</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01386082340625266</v>
+        <v>0.01369860074171032</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2</v>
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>6772</v>
+        <v>6568</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.005219760589555528</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.01856085390203627</v>
+        <v>0.01800069762417974</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>3</v>
@@ -2730,19 +2730,19 @@
         <v>2908</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>7914</v>
+        <v>8497</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.003934125633208392</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.0009618233791432708</v>
+        <v>0.0009589020788152232</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01070667601889193</v>
+        <v>0.01149600518091586</v>
       </c>
     </row>
     <row r="34">
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4999</v>
+        <v>4413</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.003853035199320309</v>
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01370138853620183</v>
+        <v>0.01209476130629565</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2</v>
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>4249</v>
+        <v>4855</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.001902075880083705</v>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.005748191518513323</v>
+        <v>0.006568699300990336</v>
       </c>
     </row>
     <row r="35">
@@ -2822,19 +2822,19 @@
         <v>3961</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>999</v>
+        <v>929</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>10077</v>
+        <v>8981</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01058320748701468</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.002669491112848729</v>
+        <v>0.002481556364844367</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.0269251305224341</v>
+        <v>0.02399701016705187</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>8</v>
@@ -2843,19 +2843,19 @@
         <v>6388</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2901</v>
+        <v>3038</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>13293</v>
+        <v>13044</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01750842396034471</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.007950969563562031</v>
+        <v>0.008327436477613467</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03643091615291344</v>
+        <v>0.03575041031276661</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>12</v>
@@ -2864,19 +2864,19 @@
         <v>10349</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>5674</v>
+        <v>5439</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>18991</v>
+        <v>19391</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01400188562953542</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.007675994944548519</v>
+        <v>0.007359263597869975</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02569425875936337</v>
+        <v>0.02623488829392959</v>
       </c>
     </row>
     <row r="36">
@@ -2893,19 +2893,19 @@
         <v>5226</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1799</v>
+        <v>2056</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11364</v>
+        <v>11859</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01396282578318244</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.004806040251716426</v>
+        <v>0.005493868218654512</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.0303637734204131</v>
+        <v>0.03168744854563224</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4</v>
@@ -2914,19 +2914,19 @@
         <v>2775</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>717</v>
+        <v>837</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>6888</v>
+        <v>7646</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.007605426350196978</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.001965196632079298</v>
+        <v>0.002293765572319763</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01887710962596115</v>
+        <v>0.02095424551141291</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>9</v>
@@ -2935,19 +2935,19 @@
         <v>8001</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3678</v>
+        <v>3758</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>15429</v>
+        <v>14940</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01082445421479589</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.004975499614050801</v>
+        <v>0.005085022423463977</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02087443564172838</v>
+        <v>0.02021377975638591</v>
       </c>
     </row>
     <row r="37">
@@ -2964,19 +2964,19 @@
         <v>6289</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2466</v>
+        <v>2684</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>13703</v>
+        <v>13572</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01680560741120305</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.006588053088594371</v>
+        <v>0.007172511492589123</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03661573111346782</v>
+        <v>0.03626503967475449</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>23</v>
@@ -2985,19 +2985,19 @@
         <v>19721</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>12462</v>
+        <v>12999</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>31586</v>
+        <v>31195</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.05404963711979974</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03415449305768267</v>
+        <v>0.03562664918960699</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08656679264977829</v>
+        <v>0.08549499793678444</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>29</v>
@@ -3006,19 +3006,19 @@
         <v>26011</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>17440</v>
+        <v>17115</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>38592</v>
+        <v>38770</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03519136485207443</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02359550818087805</v>
+        <v>0.02315550100526824</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05221281837837586</v>
+        <v>0.05245397213995112</v>
       </c>
     </row>
     <row r="38">
@@ -3035,19 +3035,19 @@
         <v>15828</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>9129</v>
+        <v>8906</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>25019</v>
+        <v>25337</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.04229356930620131</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.02439384202784263</v>
+        <v>0.02379635635811877</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.06685006173003896</v>
+        <v>0.06769991436830791</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>15</v>
@@ -3056,19 +3056,19 @@
         <v>9997</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>6041</v>
+        <v>5859</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>16779</v>
+        <v>16151</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.02739993104965775</v>
+        <v>0.02739993104965774</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01655606227824994</v>
+        <v>0.01605691148563327</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.04598475671188009</v>
+        <v>0.04426537219052321</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>30</v>
@@ -3077,19 +3077,19 @@
         <v>25826</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>17365</v>
+        <v>17650</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>38946</v>
+        <v>36861</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.0349412279366076</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.02349371730007695</v>
+        <v>0.02387994435657316</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.0526924393318109</v>
+        <v>0.04987160758543272</v>
       </c>
     </row>
     <row r="39">
@@ -3106,19 +3106,19 @@
         <v>35295</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>22402</v>
+        <v>22081</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>55434</v>
+        <v>52793</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.09430862733343544</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.05985759695037202</v>
+        <v>0.05900003794030773</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1481199029205177</v>
+        <v>0.141064776583708</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>29</v>
@@ -3127,19 +3127,19 @@
         <v>23444</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>15554</v>
+        <v>14623</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>35417</v>
+        <v>34352</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.06425124352465332</v>
+        <v>0.06425124352465331</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.04262860092661799</v>
+        <v>0.04007753637843383</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.09706575286780132</v>
+        <v>0.09414689319119983</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>51</v>
@@ -3148,19 +3148,19 @@
         <v>58739</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>43631</v>
+        <v>42164</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>79312</v>
+        <v>79250</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.0794706043713851</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.05903013931069067</v>
+        <v>0.05704569249947655</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1073057655294914</v>
+        <v>0.1072213068399442</v>
       </c>
     </row>
     <row r="40">
@@ -3177,19 +3177,19 @@
         <v>23518</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>14703</v>
+        <v>14397</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>35295</v>
+        <v>34530</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.06283969617320297</v>
+        <v>0.06283969617320298</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.03928672598637151</v>
+        <v>0.03846874699205127</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.0943073105623517</v>
+        <v>0.09226384382412738</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>34</v>
@@ -3198,19 +3198,19 @@
         <v>31736</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>22388</v>
+        <v>21439</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>44925</v>
+        <v>46332</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.08697810191640182</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06135849210340907</v>
+        <v>0.05875796047268473</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1231262209382997</v>
+        <v>0.1269823671503794</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>56</v>
@@ -3219,19 +3219,19 @@
         <v>55254</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>41478</v>
+        <v>40749</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>71576</v>
+        <v>71803</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.07475577712567176</v>
+        <v>0.07475577712567175</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.05611806367974003</v>
+        <v>0.05513201061194949</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.09683867094048006</v>
+        <v>0.09714687626921925</v>
       </c>
     </row>
     <row r="41">
@@ -3248,19 +3248,19 @@
         <v>266447</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>242633</v>
+        <v>244172</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>286085</v>
+        <v>286306</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.711948812551181</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.6483183421938845</v>
+        <v>0.6524302886533316</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.764421038086479</v>
+        <v>0.7650130241720203</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>348</v>
@@ -3269,19 +3269,19 @@
         <v>257725</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>239564</v>
+        <v>238692</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>274142</v>
+        <v>274487</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.7063418003903412</v>
+        <v>0.7063418003903411</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.656569346365294</v>
+        <v>0.6541789198841426</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.7513361633505878</v>
+        <v>0.7522807319672981</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>580</v>
@@ -3290,19 +3290,19 @@
         <v>524172</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>496579</v>
+        <v>495079</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>549724</v>
+        <v>549538</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.7091808745390001</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.6718483714765717</v>
+        <v>0.669820108701797</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.7437520540609299</v>
+        <v>0.7435005435797092</v>
       </c>
     </row>
     <row r="42">
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>5812</v>
+        <v>5621</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.003078978010015847</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.01134249976369601</v>
+        <v>0.01096959080435746</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>3</v>
@@ -3415,19 +3415,19 @@
         <v>2064</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>5778</v>
+        <v>5595</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.003559004426096026</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.001158650955837478</v>
+        <v>0.00111690616712333</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.009963982019938906</v>
+        <v>0.009647235129201022</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>5</v>
@@ -3436,19 +3436,19 @@
         <v>3642</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>1316</v>
+        <v>1297</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>8300</v>
+        <v>8338</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.003333819435517547</v>
+        <v>0.003333819435517548</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.001204470543704353</v>
+        <v>0.001187536307596625</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.007598181863416701</v>
+        <v>0.007633320732767278</v>
       </c>
     </row>
     <row r="44">
@@ -3465,19 +3465,19 @@
         <v>9416</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>4536</v>
+        <v>4622</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>17352</v>
+        <v>18156</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.01837430785210378</v>
+        <v>0.01837430785210377</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.008851644002003362</v>
+        <v>0.009020207516019381</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.03386202473190453</v>
+        <v>0.03543151951600308</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>10</v>
@@ -3486,19 +3486,19 @@
         <v>8112</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>4195</v>
+        <v>4216</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>15654</v>
+        <v>15962</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01398846481693006</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.007233679543790395</v>
+        <v>0.007270167746207398</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02699390662770423</v>
+        <v>0.02752423841702556</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>19</v>
@@ -3507,19 +3507,19 @@
         <v>17528</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>10720</v>
+        <v>10959</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>27629</v>
+        <v>28445</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01604590580240557</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.009813826816351495</v>
+        <v>0.01003266854126172</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.0252929433899561</v>
+        <v>0.02604007941355739</v>
       </c>
     </row>
     <row r="45">
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>4354</v>
+        <v>4030</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.001232337145450216</v>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.007508203476075977</v>
+        <v>0.006949138477717875</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1</v>
@@ -3573,16 +3573,16 @@
         <v>0</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>4278</v>
+        <v>3572</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.000654235984364604</v>
+        <v>0.0006542359843646041</v>
       </c>
       <c r="V45" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.003916601544547367</v>
+        <v>0.003269761808848034</v>
       </c>
     </row>
     <row r="46">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>10543</v>
+        <v>9221</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.005387361323371644</v>
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.0205747305904353</v>
+        <v>0.01799533686048894</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1</v>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>2628</v>
+        <v>2308</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.0007851136181078736</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.004531256138053016</v>
+        <v>0.003980647218854117</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>3</v>
@@ -3641,19 +3641,19 @@
         <v>3216</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>9500</v>
+        <v>10137</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.002944072107543476</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.0004146693077168783</v>
+        <v>0.0004177409526870201</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.008697088519274754</v>
+        <v>0.009280128737076353</v>
       </c>
     </row>
     <row r="47">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>3749</v>
+        <v>3735</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.00128631940457416</v>
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.006465216428202279</v>
+        <v>0.006439904380431041</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1</v>
@@ -3707,16 +3707,16 @@
         <v>0</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>4448</v>
+        <v>4286</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.0006828946485674717</v>
+        <v>0.0006828946485674718</v>
       </c>
       <c r="V47" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.004071984876032373</v>
+        <v>0.003923971109588092</v>
       </c>
     </row>
     <row r="48">
@@ -3733,19 +3733,19 @@
         <v>5727</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1988</v>
+        <v>2199</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>11957</v>
+        <v>11950</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.01117705329118319</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.003879829733502803</v>
+        <v>0.004292220490053434</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.02333370687078268</v>
+        <v>0.02331943404102408</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>5</v>
@@ -3754,19 +3754,19 @@
         <v>3370</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>1091</v>
+        <v>1042</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>8523</v>
+        <v>7633</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.005810789497245378</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.001881684672422571</v>
+        <v>0.001797529781284772</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.01469640414839998</v>
+        <v>0.01316167179942588</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>11</v>
@@ -3775,19 +3775,19 @@
         <v>9097</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>4532</v>
+        <v>4618</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>16292</v>
+        <v>16417</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.008328155253378431</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.004149052390181617</v>
+        <v>0.004227733029809198</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.01491485735208923</v>
+        <v>0.01502937965365709</v>
       </c>
     </row>
     <row r="49">
@@ -3804,19 +3804,19 @@
         <v>4259</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1462</v>
+        <v>1126</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>11012</v>
+        <v>10148</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.008311163087370664</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.002852750643903896</v>
+        <v>0.002196729124778537</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.02148923169772251</v>
+        <v>0.01980326138062748</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>8</v>
@@ -3825,19 +3825,19 @@
         <v>6238</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>3061</v>
+        <v>2966</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>11935</v>
+        <v>11860</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.01075722956246796</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.005279162889761116</v>
+        <v>0.005115105472454014</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.02058057206915379</v>
+        <v>0.02045160853348232</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>12</v>
@@ -3846,19 +3846,19 @@
         <v>10497</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>5415</v>
+        <v>5197</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>18813</v>
+        <v>18063</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.009609756344958373</v>
+        <v>0.009609756344958377</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.004957150711373334</v>
+        <v>0.004758070996846296</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.01722238059701182</v>
+        <v>0.0165359820320033</v>
       </c>
     </row>
     <row r="50">
@@ -3875,19 +3875,19 @@
         <v>9374</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>4691</v>
+        <v>4615</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>17335</v>
+        <v>17020</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.01829362500910875</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.009154911227537182</v>
+        <v>0.009005539574592962</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.03382906050491471</v>
+        <v>0.03321439006578671</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>8</v>
@@ -3896,19 +3896,19 @@
         <v>6939</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>2834</v>
+        <v>2879</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>14362</v>
+        <v>13875</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.01196498535197639</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.004887162344943376</v>
+        <v>0.004965232861992182</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.02476631176938867</v>
+        <v>0.02392641317553289</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>18</v>
@@ -3917,19 +3917,19 @@
         <v>16313</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>9706</v>
+        <v>9620</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>26225</v>
+        <v>27282</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.01493381084537987</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.008885445965690983</v>
+        <v>0.008806724163717005</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.02400800204817129</v>
+        <v>0.02497569123003038</v>
       </c>
     </row>
     <row r="51">
@@ -3946,19 +3946,19 @@
         <v>5576</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>1760</v>
+        <v>1720</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>16276</v>
+        <v>15395</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.01088101126405461</v>
+        <v>0.01088101126405462</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.003433667083576665</v>
+        <v>0.003355805364324292</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.03176143150539223</v>
+        <v>0.03004249983272836</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>5</v>
@@ -3967,19 +3967,19 @@
         <v>3746</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>1326</v>
+        <v>1253</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>8365</v>
+        <v>8277</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.006458704658781255</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.002286384891023938</v>
+        <v>0.0021606372256031</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.01442402556107857</v>
+        <v>0.01427298528874075</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>10</v>
@@ -3988,19 +3988,19 @@
         <v>9321</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>4332</v>
+        <v>4646</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>18952</v>
+        <v>19376</v>
       </c>
       <c r="U51" s="6" t="n">
-        <v>0.008533251054322313</v>
+        <v>0.008533251054322314</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.003966038844155022</v>
+        <v>0.004252859000061919</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.01734980006689253</v>
+        <v>0.01773800217161035</v>
       </c>
     </row>
     <row r="52">
@@ -4017,19 +4017,19 @@
         <v>12319</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>6888</v>
+        <v>6434</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>24760</v>
+        <v>23150</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.02403976856762062</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.01344122532626188</v>
+        <v>0.01255572547173672</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.04831910661499712</v>
+        <v>0.04517750276714747</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>18</v>
@@ -4038,19 +4038,19 @@
         <v>12678</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>7401</v>
+        <v>7901</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>19307</v>
+        <v>19866</v>
       </c>
       <c r="N52" s="6" t="n">
-        <v>0.0218624478777747</v>
+        <v>0.02186244787777469</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.01276266680793197</v>
+        <v>0.01362451736266569</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.03329317336487246</v>
+        <v>0.03425696486874036</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>30</v>
@@ -4059,19 +4059,19 @@
         <v>24997</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>15887</v>
+        <v>16619</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>37777</v>
+        <v>36577</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.02288384987275862</v>
+        <v>0.02288384987275863</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.01454366434077911</v>
+        <v>0.01521382012093591</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.03458327693007062</v>
+        <v>0.03348447141189259</v>
       </c>
     </row>
     <row r="53">
@@ -4088,19 +4088,19 @@
         <v>63945</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>49466</v>
+        <v>50384</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>78288</v>
+        <v>80949</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1247863179729067</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.09653151865848437</v>
+        <v>0.09832254642836177</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.152776259855639</v>
+        <v>0.1579703806463439</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>98</v>
@@ -4109,19 +4109,19 @@
         <v>62817</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>50016</v>
+        <v>50123</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>76232</v>
+        <v>76520</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1083195182965446</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.0862460870664571</v>
+        <v>0.08643160623919807</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1314528141637431</v>
+        <v>0.1319499964586823</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>172</v>
@@ -4130,19 +4130,19 @@
         <v>126761</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>108662</v>
+        <v>109325</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>145593</v>
+        <v>146477</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.116044251781545</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.09947545382504204</v>
+        <v>0.1000817456136591</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1332841219135732</v>
+        <v>0.1340934968606644</v>
       </c>
     </row>
     <row r="54">
@@ -4159,19 +4159,19 @@
         <v>397479</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>377259</v>
+        <v>376782</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>417800</v>
+        <v>415750</v>
       </c>
       <c r="G54" s="6" t="n">
-        <v>0.7756704136222643</v>
+        <v>0.7756704136222642</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.7362118475711431</v>
+        <v>0.7352814429846898</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.8153260272760009</v>
+        <v>0.8113247326367089</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>676</v>
@@ -4180,19 +4180,19 @@
         <v>472040</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>454427</v>
+        <v>455050</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>487116</v>
+        <v>489133</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.8139750853440514</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.783603090016767</v>
+        <v>0.7846768451830554</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.839971248604325</v>
+        <v>0.8434491945040052</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1086</v>
@@ -4201,19 +4201,19 @@
         <v>869520</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>843206</v>
+        <v>843413</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>892766</v>
+        <v>893219</v>
       </c>
       <c r="U54" s="6" t="n">
-        <v>0.7960059968692587</v>
+        <v>0.7960059968692589</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.7719173414493351</v>
+        <v>0.7721066565317939</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.8172869711696646</v>
+        <v>0.8177017331276888</v>
       </c>
     </row>
     <row r="55">
@@ -4305,19 +4305,19 @@
         <v>13306</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>6897</v>
+        <v>7218</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>23407</v>
+        <v>23783</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.007387825162858147</v>
+        <v>0.007387825162858146</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.003829144030056767</v>
+        <v>0.004007551433352243</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.01299595774948259</v>
+        <v>0.01320463761378591</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>14</v>
@@ -4326,19 +4326,19 @@
         <v>12294</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>6867</v>
+        <v>6831</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>24119</v>
+        <v>22642</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>0.006622281600875856</v>
+        <v>0.006622281600875857</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.003698793221948183</v>
+        <v>0.003679594422906465</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.01299166034241264</v>
+        <v>0.01219593635336467</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>26</v>
@@ -4347,19 +4347,19 @@
         <v>25600</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>16255</v>
+        <v>16184</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>37959</v>
+        <v>37377</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.006999254996604597</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.004444344427126184</v>
+        <v>0.004424872009864023</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.01037816316498866</v>
+        <v>0.01021913008351925</v>
       </c>
     </row>
     <row r="57">
@@ -4376,19 +4376,19 @@
         <v>25864</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>16143</v>
+        <v>16765</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>43679</v>
+        <v>41710</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.01436055890113442</v>
+        <v>0.01436055890113441</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.008962909857172822</v>
+        <v>0.009308266036869616</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.0242518061292316</v>
+        <v>0.02315864881784567</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>22</v>
@@ -4397,19 +4397,19 @@
         <v>17446</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>11501</v>
+        <v>10855</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>26846</v>
+        <v>26222</v>
       </c>
       <c r="N57" s="6" t="n">
-        <v>0.009397495455906008</v>
+        <v>0.009397495455906006</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.006195095758241243</v>
+        <v>0.00584685574077407</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.0144607623801467</v>
+        <v>0.01412460551335726</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>43</v>
@@ -4418,19 +4418,19 @@
         <v>43311</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>30291</v>
+        <v>30764</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>59735</v>
+        <v>62697</v>
       </c>
       <c r="U57" s="6" t="n">
-        <v>0.01184143590956267</v>
+        <v>0.01184143590956266</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.008281850485999959</v>
+        <v>0.00841109796494755</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.01633183953601186</v>
+        <v>0.01714176754422093</v>
       </c>
     </row>
     <row r="58">
@@ -4463,16 +4463,16 @@
         <v>0</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>3605</v>
+        <v>4299</v>
       </c>
       <c r="N58" s="6" t="n">
-        <v>0.0003849524490711442</v>
+        <v>0.0003849524490711441</v>
       </c>
       <c r="O58" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.001941919567649883</v>
+        <v>0.002315579962771117</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>1</v>
@@ -4484,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>3572</v>
+        <v>3576</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.0001953919339978018</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.0009765974814307807</v>
+        <v>0.0009776528890220453</v>
       </c>
     </row>
     <row r="59">
@@ -4510,19 +4510,19 @@
         <v>4952</v>
       </c>
       <c r="E59" s="5" t="n">
-        <v>1132</v>
+        <v>1191</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>12471</v>
+        <v>12501</v>
       </c>
       <c r="G59" s="6" t="n">
-        <v>0.002749719012353593</v>
+        <v>0.002749719012353592</v>
       </c>
       <c r="H59" s="6" t="n">
-        <v>0.0006285871995114084</v>
+        <v>0.0006609983191208529</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.006924188487997988</v>
+        <v>0.006940717145083245</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>5</v>
@@ -4531,19 +4531,19 @@
         <v>3979</v>
       </c>
       <c r="L59" s="5" t="n">
-        <v>1622</v>
+        <v>1627</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>9614</v>
+        <v>9272</v>
       </c>
       <c r="N59" s="6" t="n">
         <v>0.002143153965493668</v>
       </c>
       <c r="O59" s="6" t="n">
-        <v>0.0008739238416476267</v>
+        <v>0.0008766066287666221</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.005178744421662657</v>
+        <v>0.004994219284523739</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>9</v>
@@ -4552,19 +4552,19 @@
         <v>8931</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>4189</v>
+        <v>4173</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>17314</v>
+        <v>17620</v>
       </c>
       <c r="U59" s="6" t="n">
         <v>0.002441842239813501</v>
       </c>
       <c r="V59" s="6" t="n">
-        <v>0.001145202135773195</v>
+        <v>0.001140986045026201</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.004733651087663793</v>
+        <v>0.004817383698464197</v>
       </c>
     </row>
     <row r="60">
@@ -4594,19 +4594,19 @@
         <v>4047</v>
       </c>
       <c r="L60" s="5" t="n">
-        <v>1427</v>
+        <v>1468</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>9682</v>
+        <v>9090</v>
       </c>
       <c r="N60" s="6" t="n">
         <v>0.002179792776007293</v>
       </c>
       <c r="O60" s="6" t="n">
-        <v>0.0007687884124119722</v>
+        <v>0.0007907727327226135</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.005215403489923546</v>
+        <v>0.004896370811650737</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>5</v>
@@ -4615,19 +4615,19 @@
         <v>4047</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>1486</v>
+        <v>1439</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>9555</v>
+        <v>8819</v>
       </c>
       <c r="U60" s="6" t="n">
         <v>0.001106406589297443</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>0.0004063686808793631</v>
+        <v>0.0003934573964982785</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.002612378076311021</v>
+        <v>0.002411095274949275</v>
       </c>
     </row>
     <row r="61">
@@ -4644,19 +4644,19 @@
         <v>19827</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>10952</v>
+        <v>11202</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>31525</v>
+        <v>30294</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.01100856623623347</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.006081025092462665</v>
+        <v>0.006219555706072443</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.017503164977914</v>
+        <v>0.01681979720478796</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>31</v>
@@ -4665,19 +4665,19 @@
         <v>20531</v>
       </c>
       <c r="L61" s="5" t="n">
-        <v>13815</v>
+        <v>14323</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>30444</v>
+        <v>30004</v>
       </c>
       <c r="N61" s="6" t="n">
         <v>0.01105917736811745</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>0.007441414656848794</v>
+        <v>0.007714870154426316</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.01639868830700601</v>
+        <v>0.01616176997142525</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>49</v>
@@ -4686,19 +4686,19 @@
         <v>40358</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>29856</v>
+        <v>30002</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>54390</v>
+        <v>55182</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.01103425514135536</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.008162937268201383</v>
+        <v>0.008202665286527208</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.01487051475432739</v>
+        <v>0.01508701607824651</v>
       </c>
     </row>
     <row r="62">
@@ -4715,19 +4715,19 @@
         <v>10347</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>5626</v>
+        <v>4946</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>19227</v>
+        <v>19462</v>
       </c>
       <c r="G62" s="6" t="n">
-        <v>0.005744760358256441</v>
+        <v>0.00574476035825644</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.003123737180875038</v>
+        <v>0.002745959721293928</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.01067539426578265</v>
+        <v>0.01080568211453425</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>18</v>
@@ -4736,19 +4736,19 @@
         <v>12601</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>7285</v>
+        <v>7656</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>19552</v>
+        <v>19736</v>
       </c>
       <c r="N62" s="6" t="n">
-        <v>0.006787511513154146</v>
+        <v>0.006787511513154145</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.003923989494976064</v>
+        <v>0.004123738902010054</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.01053200645020601</v>
+        <v>0.01063084793372213</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>28</v>
@@ -4757,19 +4757,19 @@
         <v>22948</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>15299</v>
+        <v>15209</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>33606</v>
+        <v>32909</v>
       </c>
       <c r="U62" s="6" t="n">
         <v>0.006274033948606425</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.004182979047226372</v>
+        <v>0.004158234182362188</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.009188149646375808</v>
+        <v>0.008997437363480723</v>
       </c>
     </row>
     <row r="63">
@@ -4786,19 +4786,19 @@
         <v>46656</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>31640</v>
+        <v>31338</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>69353</v>
+        <v>68300</v>
       </c>
       <c r="G63" s="6" t="n">
-        <v>0.0259045542560978</v>
+        <v>0.02590455425609779</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>0.01756705076193396</v>
+        <v>0.01739983461176391</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.03850628951698325</v>
+        <v>0.03792153438576237</v>
       </c>
       <c r="J63" s="5" t="n">
         <v>63</v>
@@ -4807,19 +4807,19 @@
         <v>51646</v>
       </c>
       <c r="L63" s="5" t="n">
-        <v>38650</v>
+        <v>38754</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>69628</v>
+        <v>67778</v>
       </c>
       <c r="N63" s="6" t="n">
-        <v>0.02781932246952038</v>
+        <v>0.02781932246952037</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>0.02081877415051992</v>
+        <v>0.0208750369597019</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.03750562723080162</v>
+        <v>0.03650866400726548</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>99</v>
@@ -4828,19 +4828,19 @@
         <v>98302</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>76653</v>
+        <v>77995</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>127876</v>
+        <v>123621</v>
       </c>
       <c r="U63" s="6" t="n">
         <v>0.02687644121325548</v>
       </c>
       <c r="V63" s="6" t="n">
-        <v>0.02095741968128439</v>
+        <v>0.02132433989766605</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.03496203155426294</v>
+        <v>0.03379876192574351</v>
       </c>
     </row>
     <row r="64">
@@ -4857,19 +4857,19 @@
         <v>37958</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>26521</v>
+        <v>26223</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>55067</v>
+        <v>53651</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.02107492335922345</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.01472531826333741</v>
+        <v>0.01455984409673719</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.030574655366949</v>
+        <v>0.0297882143562393</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>32</v>
@@ -4878,19 +4878,19 @@
         <v>21671</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>14593</v>
+        <v>14901</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>30106</v>
+        <v>30828</v>
       </c>
       <c r="N64" s="6" t="n">
         <v>0.01167330234843548</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.007860583459418065</v>
+        <v>0.008026437478470266</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.01621689786273691</v>
+        <v>0.01660575203364341</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>66</v>
@@ -4899,19 +4899,19 @@
         <v>59629</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>45868</v>
+        <v>44618</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>78004</v>
+        <v>76461</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.01630290303192134</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.01254064180642282</v>
+        <v>0.01219883815819909</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.021326916459915</v>
+        <v>0.02090498123097233</v>
       </c>
     </row>
     <row r="65">
@@ -4928,19 +4928,19 @@
         <v>106492</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>83642</v>
+        <v>81877</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>136455</v>
+        <v>135049</v>
       </c>
       <c r="G65" s="6" t="n">
-        <v>0.05912703187371101</v>
+        <v>0.059127031873711</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.04644002385445052</v>
+        <v>0.04546019219403304</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.07576303643348066</v>
+        <v>0.07498242926965154</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>138</v>
@@ -4949,19 +4949,19 @@
         <v>92052</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>77473</v>
+        <v>76469</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>109935</v>
+        <v>108789</v>
       </c>
       <c r="N65" s="6" t="n">
-        <v>0.04958412864575931</v>
+        <v>0.0495841286457593</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.04173104536286793</v>
+        <v>0.04119028891105155</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.05921706998896666</v>
+        <v>0.05859971165804222</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>219</v>
@@ -4970,19 +4970,19 @@
         <v>198544</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>171226</v>
+        <v>170991</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>235731</v>
+        <v>231325</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.05428330033709531</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.0468143609255281</v>
+        <v>0.04675005626454322</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.06445049204130145</v>
+        <v>0.06324571141910372</v>
       </c>
     </row>
     <row r="66">
@@ -4999,19 +4999,19 @@
         <v>204442</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>179569</v>
+        <v>178957</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>232604</v>
+        <v>232932</v>
       </c>
       <c r="G66" s="6" t="n">
         <v>0.1135112534242339</v>
       </c>
       <c r="H66" s="6" t="n">
-        <v>0.0997012033048425</v>
+        <v>0.09936120327267932</v>
       </c>
       <c r="I66" s="6" t="n">
-        <v>0.1291471451506214</v>
+        <v>0.1293292803496624</v>
       </c>
       <c r="J66" s="5" t="n">
         <v>307</v>
@@ -5020,19 +5020,19 @@
         <v>193335</v>
       </c>
       <c r="L66" s="5" t="n">
-        <v>172248</v>
+        <v>170929</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>219592</v>
+        <v>217146</v>
       </c>
       <c r="N66" s="6" t="n">
-        <v>0.10414080916437</v>
+        <v>0.1041408091643699</v>
       </c>
       <c r="O66" s="6" t="n">
-        <v>0.09278176600710218</v>
+        <v>0.0920714953835927</v>
       </c>
       <c r="P66" s="6" t="n">
-        <v>0.1182838454705124</v>
+        <v>0.1169664711707492</v>
       </c>
       <c r="Q66" s="5" t="n">
         <v>539</v>
@@ -5041,19 +5041,19 @@
         <v>397778</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>364411</v>
+        <v>367956</v>
       </c>
       <c r="T66" s="5" t="n">
-        <v>435844</v>
+        <v>435046</v>
       </c>
       <c r="U66" s="6" t="n">
         <v>0.108755057611553</v>
       </c>
       <c r="V66" s="6" t="n">
-        <v>0.09963242667699639</v>
+        <v>0.1006015734312655</v>
       </c>
       <c r="W66" s="6" t="n">
-        <v>0.1191626102900852</v>
+        <v>0.1189445170065771</v>
       </c>
     </row>
     <row r="67">
@@ -5070,19 +5070,19 @@
         <v>1331230</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>1287371</v>
+        <v>1289059</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>1372485</v>
+        <v>1372989</v>
       </c>
       <c r="G67" s="6" t="n">
-        <v>0.7391308074158979</v>
+        <v>0.7391308074158978</v>
       </c>
       <c r="H67" s="6" t="n">
-        <v>0.7147792447107179</v>
+        <v>0.7157166909780817</v>
       </c>
       <c r="I67" s="6" t="n">
-        <v>0.7620364477471089</v>
+        <v>0.7623161385811974</v>
       </c>
       <c r="J67" s="5" t="n">
         <v>2107</v>
@@ -5091,19 +5091,19 @@
         <v>1426164</v>
       </c>
       <c r="L67" s="5" t="n">
-        <v>1394205</v>
+        <v>1393207</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>1458416</v>
+        <v>1460275</v>
       </c>
       <c r="N67" s="6" t="n">
-        <v>0.7682080722432895</v>
+        <v>0.7682080722432894</v>
       </c>
       <c r="O67" s="6" t="n">
-        <v>0.7509931608611562</v>
+        <v>0.7504559014991976</v>
       </c>
       <c r="P67" s="6" t="n">
-        <v>0.7855810734562493</v>
+        <v>0.7865822933946219</v>
       </c>
       <c r="Q67" s="5" t="n">
         <v>3422</v>
@@ -5112,19 +5112,19 @@
         <v>2757393</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>2693335</v>
+        <v>2698753</v>
       </c>
       <c r="T67" s="5" t="n">
-        <v>2803508</v>
+        <v>2806331</v>
       </c>
       <c r="U67" s="6" t="n">
-        <v>0.7538896770469371</v>
+        <v>0.7538896770469369</v>
       </c>
       <c r="V67" s="6" t="n">
-        <v>0.7363759363893422</v>
+        <v>0.7378571229659471</v>
       </c>
       <c r="W67" s="6" t="n">
-        <v>0.7664979302874482</v>
+        <v>0.767269711306067</v>
       </c>
     </row>
     <row r="68">
